--- a/模板/guarantee_test_data.xlsx
+++ b/模板/guarantee_test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F274C851-6CBD-491C-B3BD-993F6408C21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F304FA4-16B5-4491-B1A9-B496E46A864D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{61944EB5-E76C-4A4C-B87E-2AD3AAED13D3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ProjectID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +157,18 @@
   </si>
   <si>
     <t>青羊区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdas122343123123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D57089-2588-466F-AD87-F893975C05B8}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -551,7 +559,7 @@
     <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +632,11 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -642,7 +653,7 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>123</v>
@@ -678,25 +689,28 @@
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="1">
         <v>123</v>
       </c>
       <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>31</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
       </c>
       <c r="W2">
         <v>123</v>
       </c>
       <c r="X2" s="3">
         <v>123123123123</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
